--- a/target/test-classes/excelData/WorldCup.xlsx
+++ b/target/test-classes/excelData/WorldCup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techcircle_2/Documents/Cohort14-workspace/IntroToSelenium_Cohort14/src/test/resources/excelData/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>groupA</t>
   </si>
@@ -137,12 +137,16 @@
   </si>
   <si>
     <t>A8</t>
+  </si>
+  <si>
+    <t>Cohort14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -437,8 +441,8 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
+      <c r="B2" t="s" s="0">
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -463,8 +467,8 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" t="s" s="0">
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>54651321</v>
@@ -489,8 +493,8 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" t="s" s="0">
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
